--- a/publication/web-root/matchsync/StructureDefinition-hla-c.xlsx
+++ b/publication/web-root/matchsync/StructureDefinition-hla-c.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-11T17:53:38-06:00</t>
+    <t>2024-12-02T18:31:42-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/publication/web-root/matchsync/StructureDefinition-hla-c.xlsx
+++ b/publication/web-root/matchsync/StructureDefinition-hla-c.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.1</t>
+    <t>0.1.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-02T18:31:42-06:00</t>
+    <t>2025-04-16T10:37:17-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
